--- a/4713/4713.xlsx
+++ b/4713/4713.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\source\repos\bg7jws\Cpp-study\JulinDate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\source\repos\bg7jws\Cpp\4713\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B430BA-A2F2-4000-B207-2F15413078C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030EB6E7-AAB0-4157-88C4-4E0A4AA02DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>Zhang</author>
   </authors>
   <commentList>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{73055172-0503-409A-A73E-53FEF3FFAC44}">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{73055172-0503-409A-A73E-53FEF3FFAC44}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{8302BCE7-AE00-432A-AEE7-CB2E4B151C1B}">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{8302BCE7-AE00-432A-AEE7-CB2E4B151C1B}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{AEF26F2D-D59D-4F41-B662-CACD627B9AF9}">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{AEF26F2D-D59D-4F41-B662-CACD627B9AF9}">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>BC4713</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,32 @@
   <si>
     <t>Christ's birth  THE YEAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD297</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indiction 1of15</t>
+  </si>
+  <si>
+    <t>AD312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>753AUC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home (tondering.dk)</t>
   </si>
 </sst>
 </file>
@@ -261,12 +287,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -288,6 +308,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -306,16 +334,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -323,20 +349,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,15 +645,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" customWidth="1"/>
@@ -631,7 +662,7 @@
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -654,7 +685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -674,7 +705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -691,189 +722,251 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4705</v>
       </c>
       <c r="B4" s="1">
         <v>-8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>-3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7"/>
+      <c r="H6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>4712</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>-1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="H8">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>4713</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>4714</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>4715</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>312</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>5040</v>
       </c>
-      <c r="B11">
+      <c r="B15">
         <v>327</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B17">
         <v>2023</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1" display="https://www.tondering.dk/main/" xr:uid="{70F9531A-6564-4E61-8C67-3368790BA847}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>